--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.65667966666667</v>
+        <v>12.73908466666667</v>
       </c>
       <c r="H2">
-        <v>31.970039</v>
+        <v>38.217254</v>
       </c>
       <c r="I2">
-        <v>0.005231683521566389</v>
+        <v>0.005953388968763418</v>
       </c>
       <c r="J2">
-        <v>0.005282780159919856</v>
+        <v>0.006105597140986208</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>1472.956516216998</v>
+        <v>1553.260529420902</v>
       </c>
       <c r="R2">
-        <v>13256.60864595299</v>
+        <v>13979.34476478812</v>
       </c>
       <c r="S2">
-        <v>0.001176722631536605</v>
+        <v>0.001358701571495059</v>
       </c>
       <c r="T2">
-        <v>0.001308332808087487</v>
+        <v>0.001477383814744992</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.65667966666667</v>
+        <v>12.73908466666667</v>
       </c>
       <c r="H3">
-        <v>31.970039</v>
+        <v>38.217254</v>
       </c>
       <c r="I3">
-        <v>0.005231683521566389</v>
+        <v>0.005953388968763418</v>
       </c>
       <c r="J3">
-        <v>0.005282780159919856</v>
+        <v>0.006105597140986208</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>1576.275632919623</v>
+        <v>1884.293173283273</v>
       </c>
       <c r="R3">
-        <v>14186.48069627661</v>
+        <v>16958.63855954946</v>
       </c>
       <c r="S3">
-        <v>0.001259262707605246</v>
+        <v>0.001648269589810477</v>
       </c>
       <c r="T3">
-        <v>0.001400104553279149</v>
+        <v>0.001792245527207902</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.65667966666667</v>
+        <v>12.73908466666667</v>
       </c>
       <c r="H4">
-        <v>31.970039</v>
+        <v>38.217254</v>
       </c>
       <c r="I4">
-        <v>0.005231683521566389</v>
+        <v>0.005953388968763418</v>
       </c>
       <c r="J4">
-        <v>0.005282780159919856</v>
+        <v>0.006105597140986208</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>791.4994909262475</v>
+        <v>1063.776874424737</v>
       </c>
       <c r="R4">
-        <v>7123.495418336229</v>
+        <v>9573.991869822632</v>
       </c>
       <c r="S4">
-        <v>0.000632316944572589</v>
+        <v>0.0009305298651603927</v>
       </c>
       <c r="T4">
-        <v>0.0007030382364735033</v>
+        <v>0.001011811416698434</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.65667966666667</v>
+        <v>12.73908466666667</v>
       </c>
       <c r="H5">
-        <v>31.970039</v>
+        <v>38.217254</v>
       </c>
       <c r="I5">
-        <v>0.005231683521566389</v>
+        <v>0.005953388968763418</v>
       </c>
       <c r="J5">
-        <v>0.005282780159919856</v>
+        <v>0.006105597140986208</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>1803.707991374242</v>
+        <v>1160.128854250659</v>
       </c>
       <c r="R5">
-        <v>10822.24794824545</v>
+        <v>6960.773125503952</v>
       </c>
       <c r="S5">
-        <v>0.001440954971016142</v>
+        <v>0.001014812948343449</v>
       </c>
       <c r="T5">
-        <v>0.001068078754234745</v>
+        <v>0.0007356377374449365</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.65667966666667</v>
+        <v>12.73908466666667</v>
       </c>
       <c r="H6">
-        <v>31.970039</v>
+        <v>38.217254</v>
       </c>
       <c r="I6">
-        <v>0.005231683521566389</v>
+        <v>0.005953388968763418</v>
       </c>
       <c r="J6">
-        <v>0.005282780159919856</v>
+        <v>0.006105597140986208</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>904.2933727148423</v>
+        <v>1144.42369665334</v>
       </c>
       <c r="R6">
-        <v>8138.640354433581</v>
+        <v>10299.81326988006</v>
       </c>
       <c r="S6">
-        <v>0.0007224262668358069</v>
+        <v>0.00100107499395404</v>
       </c>
       <c r="T6">
-        <v>0.0008032258078449719</v>
+        <v>0.001088518644889944</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5894.824219</v>
       </c>
       <c r="I7">
-        <v>0.9646486427205408</v>
+        <v>0.9182810852447438</v>
       </c>
       <c r="J7">
-        <v>0.9740701420585772</v>
+        <v>0.9417584502053091</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>271592.403916987</v>
+        <v>239582.8278831099</v>
       </c>
       <c r="R7">
-        <v>2444331.635252883</v>
+        <v>2156245.450947989</v>
       </c>
       <c r="S7">
-        <v>0.2169710542870278</v>
+        <v>0.2095730616868086</v>
       </c>
       <c r="T7">
-        <v>0.2412381143365635</v>
+        <v>0.2278792163329523</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5894.824219</v>
       </c>
       <c r="I8">
-        <v>0.9646486427205408</v>
+        <v>0.9182810852447438</v>
       </c>
       <c r="J8">
-        <v>0.9740701420585772</v>
+        <v>0.9417584502053091</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
-        <v>290642.9916070528</v>
+        <v>290642.9916070527</v>
       </c>
       <c r="R8">
         <v>2615786.924463475</v>
       </c>
       <c r="S8">
-        <v>0.2321902799954332</v>
+        <v>0.2542375100381622</v>
       </c>
       <c r="T8">
-        <v>0.2581595296083968</v>
+        <v>0.276445093103224</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5894.824219</v>
       </c>
       <c r="I9">
-        <v>0.9646486427205408</v>
+        <v>0.9182810852447438</v>
       </c>
       <c r="J9">
-        <v>0.9740701420585772</v>
+        <v>0.9417584502053091</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>145941.3411550175</v>
+        <v>164082.3718776619</v>
       </c>
       <c r="R9">
-        <v>1313472.070395157</v>
+        <v>1476741.346898957</v>
       </c>
       <c r="S9">
-        <v>0.1165903250524836</v>
+        <v>0.1435296734205521</v>
       </c>
       <c r="T9">
-        <v>0.1296303336773238</v>
+        <v>0.156066954580636</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5894.824219</v>
       </c>
       <c r="I10">
-        <v>0.9646486427205408</v>
+        <v>0.9182810852447438</v>
       </c>
       <c r="J10">
-        <v>0.9740701420585772</v>
+        <v>0.9417584502053091</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>332578.310322259</v>
+        <v>178944.1927773645</v>
       </c>
       <c r="R10">
-        <v>1995469.861933554</v>
+        <v>1073665.156664187</v>
       </c>
       <c r="S10">
-        <v>0.2656917703989788</v>
+        <v>0.1565299261336191</v>
       </c>
       <c r="T10">
-        <v>0.1969386558540739</v>
+        <v>0.1134685174162637</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>5894.824219</v>
       </c>
       <c r="I11">
-        <v>0.9646486427205408</v>
+        <v>0.9182810852447438</v>
       </c>
       <c r="J11">
-        <v>0.9740701420585772</v>
+        <v>0.9417584502053091</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>166738.9418749425</v>
+        <v>176521.749151041</v>
       </c>
       <c r="R11">
-        <v>1500650.476874483</v>
+        <v>1588695.742359369</v>
       </c>
       <c r="S11">
-        <v>0.1332052129866176</v>
+        <v>0.1544109139656018</v>
       </c>
       <c r="T11">
-        <v>0.1481035085822191</v>
+        <v>0.1678986687722331</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.166748</v>
+        <v>1.091866333333334</v>
       </c>
       <c r="H12">
-        <v>3.500244</v>
+        <v>3.275599000000001</v>
       </c>
       <c r="I12">
-        <v>0.000572791570766042</v>
+        <v>0.0005102646818291153</v>
       </c>
       <c r="J12">
-        <v>0.0005783858930568872</v>
+        <v>0.0005233104369407934</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>161.266841374496</v>
+        <v>133.129885179887</v>
       </c>
       <c r="R12">
-        <v>1451.401572370464</v>
+        <v>1198.168966618983</v>
       </c>
       <c r="S12">
-        <v>0.0001288336348510621</v>
+        <v>0.0001164542462649892</v>
       </c>
       <c r="T12">
-        <v>0.000143242992650443</v>
+        <v>0.0001266264956188344</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.166748</v>
+        <v>1.091866333333334</v>
       </c>
       <c r="H13">
-        <v>3.500244</v>
+        <v>3.275599000000001</v>
       </c>
       <c r="I13">
-        <v>0.000572791570766042</v>
+        <v>0.0005102646818291153</v>
       </c>
       <c r="J13">
-        <v>0.0005783858930568872</v>
+        <v>0.0005233104369407934</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>172.57874869884</v>
+        <v>161.5026771445567</v>
       </c>
       <c r="R13">
-        <v>1553.20873828956</v>
+        <v>1453.52409430101</v>
       </c>
       <c r="S13">
-        <v>0.0001378705461297378</v>
+        <v>0.0001412731071707457</v>
       </c>
       <c r="T13">
-        <v>0.0001532906344589701</v>
+        <v>0.0001536132778319624</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.166748</v>
+        <v>1.091866333333334</v>
       </c>
       <c r="H14">
-        <v>3.500244</v>
+        <v>3.275599000000001</v>
       </c>
       <c r="I14">
-        <v>0.000572791570766042</v>
+        <v>0.0005102646818291153</v>
       </c>
       <c r="J14">
-        <v>0.0005783858930568872</v>
+        <v>0.0005233104369407934</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>86.65742772843198</v>
+        <v>91.17626468109914</v>
       </c>
       <c r="R14">
-        <v>779.9168495558879</v>
+        <v>820.5863821298922</v>
       </c>
       <c r="S14">
-        <v>6.922930532986016E-05</v>
+        <v>7.975566993352054E-05</v>
       </c>
       <c r="T14">
-        <v>7.697223544165713E-05</v>
+        <v>8.672230780175816E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.166748</v>
+        <v>1.091866333333334</v>
       </c>
       <c r="H15">
-        <v>3.500244</v>
+        <v>3.275599000000001</v>
       </c>
       <c r="I15">
-        <v>0.000572791570766042</v>
+        <v>0.0005102646818291153</v>
       </c>
       <c r="J15">
-        <v>0.0005783858930568872</v>
+        <v>0.0005233104369407934</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>197.479210912434</v>
+        <v>99.43458823217921</v>
       </c>
       <c r="R15">
-        <v>1184.875265474604</v>
+        <v>596.6075293930752</v>
       </c>
       <c r="S15">
-        <v>0.0001577631479138773</v>
+        <v>8.697956893451458E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001169387453996424</v>
+        <v>6.305147505199868E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.166748</v>
+        <v>1.091866333333334</v>
       </c>
       <c r="H16">
-        <v>3.500244</v>
+        <v>3.275599000000001</v>
       </c>
       <c r="I16">
-        <v>0.000572791570766042</v>
+        <v>0.0005102646818291153</v>
       </c>
       <c r="J16">
-        <v>0.0005783858930568872</v>
+        <v>0.0005233104369407934</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>99.00668097667601</v>
+        <v>98.08849993079002</v>
       </c>
       <c r="R16">
-        <v>891.0601287900841</v>
+        <v>882.7964993771102</v>
       </c>
       <c r="S16">
-        <v>7.909493654150473E-05</v>
+        <v>8.580208952534522E-05</v>
       </c>
       <c r="T16">
-        <v>8.79412851061744E-05</v>
+        <v>9.329688063623975E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>59.10598950000001</v>
+        <v>160.0313415</v>
       </c>
       <c r="H17">
-        <v>118.211979</v>
+        <v>320.062683</v>
       </c>
       <c r="I17">
-        <v>0.0290169021651515</v>
+        <v>0.0747878554913321</v>
       </c>
       <c r="J17">
-        <v>0.01953353567463783</v>
+        <v>0.05113328661083746</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>8169.575806411605</v>
+        <v>19512.41966957337</v>
       </c>
       <c r="R17">
-        <v>49017.45483846963</v>
+        <v>117074.5180174402</v>
       </c>
       <c r="S17">
-        <v>0.006526550265141839</v>
+        <v>0.01706832483447234</v>
       </c>
       <c r="T17">
-        <v>0.004837673499073586</v>
+        <v>0.01237282583327565</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>59.10598950000001</v>
+        <v>160.0313415</v>
       </c>
       <c r="H18">
-        <v>118.211979</v>
+        <v>320.062683</v>
       </c>
       <c r="I18">
-        <v>0.0290169021651515</v>
+        <v>0.0747878554913321</v>
       </c>
       <c r="J18">
-        <v>0.01953353567463783</v>
+        <v>0.05113328661083746</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>8742.622835879536</v>
+        <v>23670.92865697369</v>
       </c>
       <c r="R18">
-        <v>52455.73701527722</v>
+        <v>142025.5719418422</v>
       </c>
       <c r="S18">
-        <v>0.006984348849883221</v>
+        <v>0.02070594556147535</v>
       </c>
       <c r="T18">
-        <v>0.005177007449069395</v>
+        <v>0.0150097364931795</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>59.10598950000001</v>
+        <v>160.0313415</v>
       </c>
       <c r="H19">
-        <v>118.211979</v>
+        <v>320.062683</v>
       </c>
       <c r="I19">
-        <v>0.0290169021651515</v>
+        <v>0.0747878554913321</v>
       </c>
       <c r="J19">
-        <v>0.01953353567463783</v>
+        <v>0.05113328661083746</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>4389.956540241518</v>
+        <v>13363.41226432969</v>
       </c>
       <c r="R19">
-        <v>26339.73924144911</v>
+        <v>80180.47358597816</v>
       </c>
       <c r="S19">
-        <v>0.003507069730497939</v>
+        <v>0.01168953237410242</v>
       </c>
       <c r="T19">
-        <v>0.002599544568782128</v>
+        <v>0.008473740073489625</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>59.10598950000001</v>
+        <v>160.0313415</v>
       </c>
       <c r="H20">
-        <v>118.211979</v>
+        <v>320.062683</v>
       </c>
       <c r="I20">
-        <v>0.0290169021651515</v>
+        <v>0.0747878554913321</v>
       </c>
       <c r="J20">
-        <v>0.01953353567463783</v>
+        <v>0.05113328661083746</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>10004.049003434</v>
+        <v>14573.80822221745</v>
       </c>
       <c r="R20">
-        <v>40016.196013736</v>
+        <v>58295.23288886978</v>
       </c>
       <c r="S20">
-        <v>0.00799208309256547</v>
+        <v>0.01274831604816288</v>
       </c>
       <c r="T20">
-        <v>0.003949313395142991</v>
+        <v>0.006160834788461669</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>59.10598950000001</v>
+        <v>160.0313415</v>
       </c>
       <c r="H21">
-        <v>118.211979</v>
+        <v>320.062683</v>
       </c>
       <c r="I21">
-        <v>0.0290169021651515</v>
+        <v>0.0747878554913321</v>
       </c>
       <c r="J21">
-        <v>0.01953353567463783</v>
+        <v>0.05113328661083746</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>5015.554212423988</v>
+        <v>14376.51638339764</v>
       </c>
       <c r="R21">
-        <v>30093.32527454393</v>
+        <v>86259.09830038587</v>
       </c>
       <c r="S21">
-        <v>0.004006850227063039</v>
+        <v>0.01257573667311911</v>
       </c>
       <c r="T21">
-        <v>0.002969996762569725</v>
+        <v>0.009116149422431021</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.079543</v>
+        <v>1.000156333333333</v>
       </c>
       <c r="H22">
-        <v>3.238629</v>
+        <v>3.000469</v>
       </c>
       <c r="I22">
-        <v>0.0005299800219751696</v>
+        <v>0.0004674056133315229</v>
       </c>
       <c r="J22">
-        <v>0.0005351562138082184</v>
+        <v>0.0004793556059265206</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N22">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O22">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P22">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q22">
-        <v>149.2134460380027</v>
+        <v>121.947800526197</v>
       </c>
       <c r="R22">
-        <v>1342.921014342024</v>
+        <v>1097.530204735773</v>
       </c>
       <c r="S22">
-        <v>0.0001192043600400601</v>
+        <v>0.0001066728118540962</v>
       </c>
       <c r="T22">
-        <v>0.0001325367345946487</v>
+        <v>0.0001159906553527914</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.079543</v>
+        <v>1.000156333333333</v>
       </c>
       <c r="H23">
-        <v>3.238629</v>
+        <v>3.000469</v>
       </c>
       <c r="I23">
-        <v>0.0005299800219751696</v>
+        <v>0.0004674056133315229</v>
       </c>
       <c r="J23">
-        <v>0.0005351562138082184</v>
+        <v>0.0004793556059265206</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P23">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q23">
-        <v>159.67987955119</v>
+        <v>147.9374539402566</v>
       </c>
       <c r="R23">
-        <v>1437.11891596071</v>
+        <v>1331.43708546231</v>
       </c>
       <c r="S23">
-        <v>0.0001275658351079543</v>
+        <v>0.0001294070423759135</v>
       </c>
       <c r="T23">
-        <v>0.0001418333962395822</v>
+        <v>0.0001407107152380954</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.079543</v>
+        <v>1.000156333333333</v>
       </c>
       <c r="H24">
-        <v>3.238629</v>
+        <v>3.000469</v>
       </c>
       <c r="I24">
-        <v>0.0005299800219751696</v>
+        <v>0.0004674056133315229</v>
       </c>
       <c r="J24">
-        <v>0.0005351562138082184</v>
+        <v>0.0004793556059265206</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N24">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O24">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P24">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q24">
-        <v>80.18048413387865</v>
+        <v>83.51802394353911</v>
       </c>
       <c r="R24">
-        <v>721.6243572049079</v>
+        <v>751.662215491852</v>
       </c>
       <c r="S24">
-        <v>6.40549732793313E-05</v>
+        <v>7.305668832166585E-05</v>
       </c>
       <c r="T24">
-        <v>7.121918183308895E-05</v>
+        <v>7.94381718176228E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.079543</v>
+        <v>1.000156333333333</v>
       </c>
       <c r="H25">
-        <v>3.238629</v>
+        <v>3.000469</v>
       </c>
       <c r="I25">
-        <v>0.0005299800219751696</v>
+        <v>0.0004674056133315229</v>
       </c>
       <c r="J25">
-        <v>0.0005351562138082184</v>
+        <v>0.0004793556059265206</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N25">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O25">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P25">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q25">
-        <v>182.7192331043565</v>
+        <v>91.08269953630416</v>
       </c>
       <c r="R25">
-        <v>1096.315398626139</v>
+        <v>546.4961972178251</v>
       </c>
       <c r="S25">
-        <v>0.0001459716253967359</v>
+        <v>7.967382461081895E-05</v>
       </c>
       <c r="T25">
-        <v>0.0001081985176104576</v>
+        <v>5.775554220702698E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.079543</v>
+        <v>1.000156333333333</v>
       </c>
       <c r="H26">
-        <v>3.238629</v>
+        <v>3.000469</v>
       </c>
       <c r="I26">
-        <v>0.0005299800219751696</v>
+        <v>0.0004674056133315229</v>
       </c>
       <c r="J26">
-        <v>0.0005351562138082184</v>
+        <v>0.0004793556059265206</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N26">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O26">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P26">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q26">
-        <v>91.60673033217435</v>
+        <v>89.84967430348998</v>
       </c>
       <c r="R26">
-        <v>824.4605729895691</v>
+        <v>808.6470687314099</v>
       </c>
       <c r="S26">
-        <v>7.318322815108802E-05</v>
+        <v>7.859524616902832E-05</v>
       </c>
       <c r="T26">
-        <v>8.136838353044088E-05</v>
+        <v>8.546052131098389E-05</v>
       </c>
     </row>
   </sheetData>
